--- a/manuscript/tables/S2_gene_mapping.xlsx
+++ b/manuscript/tables/S2_gene_mapping.xlsx
@@ -18,7 +18,7 @@
     <t xml:space="preserve">Table S2. Positional mapping results for EUR, AFR and SAS fixed meta-analyses of the antidepressant GWAS (N06A, N06AA and N06AB).</t>
   </si>
   <si>
-    <t xml:space="preserve">(A) Results shown for Bonferroni corrected mBAT-combo p-value &lt; 0.05.</t>
+    <t xml:space="preserve">(A) Results shown for Bonferroni corrected mBAT-combo p-value &lt; 0.05</t>
   </si>
   <si>
     <t xml:space="preserve">sheet_name</t>

--- a/manuscript/tables/S2_gene_mapping.xlsx
+++ b/manuscript/tables/S2_gene_mapping.xlsx
@@ -4042,7 +4042,7 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
